--- a/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/02 Matches of one TF-IDF.xlsx
+++ b/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/02 Matches of one TF-IDF.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27398" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72230" uniqueCount="998">
   <si>
     <t>small_dataset_name</t>
   </si>
@@ -11114,13 +11114,13 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E3" s="1">
         <v>1.0000000000000002</v>
@@ -11129,13 +11129,13 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E4" s="1">
         <v>1.0000000000000002</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>482</v>
@@ -11174,13 +11174,13 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>482</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E7" s="1">
         <v>1.0000000000000002</v>
@@ -11189,13 +11189,13 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E8" s="1">
         <v>1.0000000000000002</v>
@@ -11219,13 +11219,13 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -11234,13 +11234,13 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -11249,13 +11249,13 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>481</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -11264,13 +11264,13 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -11279,13 +11279,13 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -11294,13 +11294,13 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -11309,13 +11309,13 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -11324,13 +11324,13 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>482</v>
       </c>
       <c r="D17" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -11339,13 +11339,13 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -11354,13 +11354,13 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -11369,13 +11369,13 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -11384,13 +11384,13 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -11399,13 +11399,13 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>481</v>
       </c>
       <c r="D22" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -11429,13 +11429,13 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -11444,13 +11444,13 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>482</v>
       </c>
       <c r="D25" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -11459,13 +11459,13 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>481</v>
       </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -11474,13 +11474,13 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>481</v>
       </c>
       <c r="D27" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -11489,13 +11489,13 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>481</v>
       </c>
       <c r="D28" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -11504,13 +11504,13 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>481</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>481</v>
@@ -11534,13 +11534,13 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>482</v>
       </c>
       <c r="D31" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -11549,13 +11549,13 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>481</v>
@@ -11579,13 +11579,13 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -11594,13 +11594,13 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -11609,13 +11609,13 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -11624,13 +11624,13 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -11639,13 +11639,13 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>481</v>
       </c>
       <c r="D38" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -11654,13 +11654,13 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>481</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -11669,13 +11669,13 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D40" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -11684,13 +11684,13 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -11699,7 +11699,7 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>481</v>
@@ -11714,13 +11714,13 @@
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -11729,13 +11729,13 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D44" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -11744,13 +11744,13 @@
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>482</v>
       </c>
       <c r="D45" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -11759,13 +11759,13 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -11774,13 +11774,13 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D47" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -11789,13 +11789,13 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>481</v>
       </c>
       <c r="D48" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -11804,13 +11804,13 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D49" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -11819,13 +11819,13 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -11834,13 +11834,13 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>481</v>
       </c>
       <c r="D51" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -11849,13 +11849,13 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
         <v>482</v>
       </c>
       <c r="D52" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -11864,13 +11864,13 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D53" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -11882,10 +11882,10 @@
         <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D54" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -11894,13 +11894,13 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>481</v>
       </c>
       <c r="D55" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -11909,13 +11909,13 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>481</v>
       </c>
       <c r="D56" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -11924,13 +11924,13 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D57" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -11939,13 +11939,13 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>481</v>
       </c>
       <c r="D58" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
         <v>481</v>
@@ -11969,13 +11969,13 @@
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -11984,13 +11984,13 @@
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -11999,13 +11999,13 @@
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D62" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -12014,13 +12014,13 @@
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>481</v>
       </c>
       <c r="D63" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -12029,13 +12029,13 @@
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D64" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -12044,13 +12044,13 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D65" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -12059,13 +12059,13 @@
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -12074,13 +12074,13 @@
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
         <v>482</v>
       </c>
       <c r="D67" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
         <v>482</v>
       </c>
       <c r="D79" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E79" s="1">
         <v>0.95974233672137055</v>
@@ -12269,13 +12269,13 @@
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
         <v>482</v>
       </c>
       <c r="D80" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E80" s="1">
         <v>0.95974233672137055</v>
@@ -12284,13 +12284,13 @@
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
         <v>482</v>
       </c>
       <c r="D81" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E81" s="1">
         <v>0.95974233672137055</v>
@@ -12299,13 +12299,13 @@
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
         <v>482</v>
       </c>
       <c r="D82" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E82" s="1">
         <v>0.95974233672137055</v>
@@ -12314,13 +12314,13 @@
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
         <v>482</v>
       </c>
       <c r="D83" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E83" s="1">
         <v>0.95974233672137055</v>
@@ -12329,13 +12329,13 @@
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
         <v>482</v>
       </c>
       <c r="D84" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E84" s="1">
         <v>0.95974233672137055</v>
@@ -12344,13 +12344,13 @@
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
         <v>482</v>
       </c>
       <c r="D85" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E85" s="1">
         <v>0.95974233672137055</v>
@@ -12359,13 +12359,13 @@
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
         <v>482</v>
       </c>
       <c r="D86" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E86" s="1">
         <v>0.95974233672137055</v>
@@ -12374,13 +12374,13 @@
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
         <v>482</v>
       </c>
       <c r="D87" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E87" s="1">
         <v>0.95974233672137055</v>
@@ -12389,13 +12389,13 @@
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
         <v>482</v>
       </c>
       <c r="D88" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E88" s="1">
         <v>0.95974233672137055</v>
@@ -12404,13 +12404,13 @@
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
         <v>482</v>
       </c>
       <c r="D89" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E89" s="1">
         <v>0.95974233672137055</v>
@@ -12419,13 +12419,13 @@
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
         <v>482</v>
       </c>
       <c r="D90" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E90" s="1">
         <v>0.95974233672137055</v>
@@ -12434,13 +12434,13 @@
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
         <v>482</v>
       </c>
       <c r="D91" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E91" s="1">
         <v>0.95974233672137055</v>
@@ -12449,13 +12449,13 @@
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
         <v>482</v>
       </c>
       <c r="D92" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E92" s="1">
         <v>0.95974233672137055</v>
@@ -12464,13 +12464,13 @@
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
         <v>481</v>
       </c>
       <c r="D93" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="E93" s="1">
         <v>0.95971550445604947</v>
@@ -12479,13 +12479,13 @@
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
         <v>481</v>
       </c>
       <c r="D94" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E94" s="1">
         <v>0.95971550445604947</v>
@@ -12524,13 +12524,13 @@
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
         <v>482</v>
       </c>
       <c r="D97" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E97" s="1">
         <v>0.95601157792703728</v>
@@ -12554,13 +12554,13 @@
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
         <v>482</v>
       </c>
       <c r="D99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E99" s="1">
         <v>0.95601157792703728</v>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>482</v>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
         <v>482</v>
@@ -12764,13 +12764,13 @@
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
         <v>481</v>
       </c>
       <c r="D113" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E113" s="1">
         <v>0.94774922781193394</v>
@@ -12779,13 +12779,13 @@
     </row>
     <row r="114">
       <c r="B114" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
         <v>481</v>
       </c>
       <c r="D114" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E114" s="1">
         <v>0.94774922781193394</v>
@@ -12794,13 +12794,13 @@
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
         <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E115" s="1">
         <v>0.94774922781193394</v>
@@ -13274,13 +13274,13 @@
     </row>
     <row r="147">
       <c r="B147" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C147" t="s">
         <v>481</v>
       </c>
       <c r="D147" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E147" s="1">
         <v>0.91903261829712302</v>
@@ -13289,13 +13289,13 @@
     </row>
     <row r="148">
       <c r="B148" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
         <v>481</v>
       </c>
       <c r="D148" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E148" s="1">
         <v>0.91903261829712302</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="169">
       <c r="B169" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C169" t="s">
         <v>482</v>
@@ -13619,7 +13619,7 @@
     </row>
     <row r="170">
       <c r="B170" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C170" t="s">
         <v>482</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="180">
       <c r="B180" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C180" t="s">
         <v>481</v>
@@ -13784,13 +13784,13 @@
     </row>
     <row r="181">
       <c r="B181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" t="s">
         <v>481</v>
       </c>
       <c r="D181" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E181" s="1">
         <v>0.88200520170360319</v>
@@ -13799,13 +13799,13 @@
     </row>
     <row r="182">
       <c r="B182" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C182" t="s">
         <v>481</v>
       </c>
       <c r="D182" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E182" s="1">
         <v>0.88200520170360319</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="187">
       <c r="B187" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C187" t="s">
         <v>481</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="188">
       <c r="B188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C188" t="s">
         <v>481</v>
@@ -14009,7 +14009,7 @@
     </row>
     <row r="196">
       <c r="B196" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C196" t="s">
         <v>481</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="197">
       <c r="B197" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C197" t="s">
         <v>481</v>
@@ -14129,13 +14129,13 @@
     </row>
     <row r="204">
       <c r="B204" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" t="s">
         <v>481</v>
       </c>
       <c r="D204" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E204" s="1">
         <v>0.86672409804842077</v>
@@ -14144,13 +14144,13 @@
     </row>
     <row r="205">
       <c r="B205" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C205" t="s">
         <v>481</v>
       </c>
       <c r="D205" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E205" s="1">
         <v>0.86672409804842077</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="285">
       <c r="B285" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C285" t="s">
         <v>481</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="286">
       <c r="B286" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C286" t="s">
         <v>481</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="288">
       <c r="B288" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C288" t="s">
         <v>481</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="289">
       <c r="B289" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C289" t="s">
         <v>481</v>
@@ -15719,7 +15719,7 @@
     </row>
     <row r="310">
       <c r="B310" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C310" t="s">
         <v>481</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="311">
       <c r="B311" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C311" t="s">
         <v>481</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="313">
       <c r="B313" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C313" t="s">
         <v>481</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="314">
       <c r="B314" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C314" t="s">
         <v>481</v>
@@ -15794,7 +15794,7 @@
     </row>
     <row r="315">
       <c r="B315" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C315" t="s">
         <v>481</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="316">
       <c r="B316" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C316" t="s">
         <v>481</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="330">
       <c r="B330" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C330" t="s">
         <v>481</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="331">
       <c r="B331" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C331" t="s">
         <v>481</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="390">
       <c r="B390" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C390" t="s">
         <v>481</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="391">
       <c r="B391" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C391" t="s">
         <v>481</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="407">
       <c r="B407" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C407" t="s">
         <v>482</v>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="408">
       <c r="B408" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C408" t="s">
         <v>482</v>
@@ -17294,7 +17294,7 @@
     </row>
     <row r="415">
       <c r="B415" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C415" t="s">
         <v>481</v>
@@ -17309,7 +17309,7 @@
     </row>
     <row r="416">
       <c r="B416" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C416" t="s">
         <v>481</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="484">
       <c r="B484" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C484" t="s">
         <v>481</v>
@@ -18344,7 +18344,7 @@
     </row>
     <row r="485">
       <c r="B485" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C485" t="s">
         <v>481</v>
@@ -19049,7 +19049,7 @@
     </row>
     <row r="532">
       <c r="B532" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C532" t="s">
         <v>481</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="533">
       <c r="B533" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C533" t="s">
         <v>481</v>
@@ -19304,7 +19304,7 @@
     </row>
     <row r="549">
       <c r="B549" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C549" t="s">
         <v>481</v>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="550">
       <c r="B550" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C550" t="s">
         <v>481</v>
